--- a/medicine/Enfance/Virginia_Hamilton/Virginia_Hamilton.xlsx
+++ b/medicine/Enfance/Virginia_Hamilton/Virginia_Hamilton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Virginia Esther Hamilton (12 mars 1934 – 19 février 2002) est une femme de lettres afro-américaine, auteure de littérature d'enfance et de jeunesse. Elle est lauréate en 1992 du prestigieux prix international, le prix Hans Christian Andersen catégorie Écriture.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle a écrit 41 livres, dont M. C. Higgins, the Great, qui lui a valu de recevoir le National Book Award du livre pour enfants[1] et la médaille Newbery en 1975[2].
-Elle figure dans la « Honour List » 1976[3] de l' IBBY, catégorie Auteur, pour M. C. Higgins, the Great, puis dans la « Honour List » 1984[3], pour Sweet Whispers, Brother Rush.
-Pour couronnement de toute sa carrière, Virginia Hamilton a reçu le prix Hans Christian Andersen catégorie Écriture en 1992[4], et la médaille Laura Ingalls Wilder pour sa contribution à la littérature de jeunesse américaine en 1995[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a écrit 41 livres, dont M. C. Higgins, the Great, qui lui a valu de recevoir le National Book Award du livre pour enfants et la médaille Newbery en 1975.
+Elle figure dans la « Honour List » 1976 de l' IBBY, catégorie Auteur, pour M. C. Higgins, the Great, puis dans la « Honour List » 1984, pour Sweet Whispers, Brother Rush.
+Pour couronnement de toute sa carrière, Virginia Hamilton a reçu le prix Hans Christian Andersen catégorie Écriture en 1992, et la médaille Laura Ingalls Wilder pour sa contribution à la littérature de jeunesse américaine en 1995.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Quand les hommes savaient voler, contes populaires noirs américains, illustré par Leo et Diane Dillon, édition du Sorbier, 1988 ; 1997.</t>
         </is>
